--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3550829.812528001</v>
+        <v>3654855.864388507</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7689913.072086161</v>
+        <v>7653753.359804607</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.9839477159208</v>
+        <v>87.56102582327524</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247925</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>30.70739922262725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>96.47271252687879</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9594311738726</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>199.1961742994391</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>29.74310329855266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>90.06486366347968</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>19.34104464821445</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.23266981762882</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.5207038767246</v>
+        <v>79.89660740075878</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.35711883683373</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.85497112745813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>19.91555826189146</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>116.287325111933</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>26.13627195705896</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>80.25286948725228</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.4437570891991</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>40.57972681915209</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352489</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>157.703088815509</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>107.1685137621102</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>113.8415422301047</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>75.5520862197295</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686093</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064768</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1762.102825034773</v>
+        <v>630.9252167254039</v>
       </c>
       <c r="C4" t="n">
-        <v>1593.166642106866</v>
+        <v>461.989033797497</v>
       </c>
       <c r="D4" t="n">
-        <v>1562.149067134515</v>
+        <v>311.8723943851612</v>
       </c>
       <c r="E4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.9593008027681</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.9593008027681</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.9593008027681</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>2754.986613319168</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>2500.302125113281</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>2210.88495507632</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X4" t="n">
-        <v>1982.895404178303</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="Y4" t="n">
-        <v>1762.102825034773</v>
+        <v>812.5736815556436</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875905</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.069587875905</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4601,16 +4603,16 @@
         <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>720.5449729949386</v>
       </c>
       <c r="C7" t="n">
-        <v>193.8813322992448</v>
+        <v>720.5449729949386</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>570.4283335826028</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>422.5152400002097</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>422.5152400002097</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>254.8124033749287</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,22 +4801,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3255.673831894394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3049.696084278616</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.696084278616</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.4676803942466</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="C10" t="n">
-        <v>563.5314974663397</v>
+        <v>392.4545310353815</v>
       </c>
       <c r="D10" t="n">
-        <v>563.5314974663397</v>
+        <v>392.4545310353815</v>
       </c>
       <c r="E10" t="n">
-        <v>563.5314974663397</v>
+        <v>244.5414374529884</v>
       </c>
       <c r="F10" t="n">
-        <v>416.6415499684293</v>
+        <v>244.5414374529884</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244863</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,25 +5056,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>366.9636532421613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069459</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474271</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>113.933388565034</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>113.933388565034</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5503,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-5.33073463231963e-14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>84.25835418137862</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6085800303774</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>65.16817853567896</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.6938862346289</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>185.1299285698851</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>60.88156453658576</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>147.021377568698</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>179.3544845744808</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>53.40527886852314</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>70.88187642683967</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="H2" t="n">
-        <v>766789.2697055063</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.121213568987367e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820622</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26441,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685513</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>22207.61133994851</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22207.61133994851</v>
-      </c>
       <c r="M4" t="n">
-        <v>22207.61133994851</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994851</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661228</v>
+        <v>-750092.7917661234</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.9539614695</v>
+        <v>578651.9539614698</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.9539614692</v>
+        <v>578651.9539614693</v>
       </c>
       <c r="E6" t="n">
-        <v>326037.5259973885</v>
+        <v>326037.5259973884</v>
       </c>
       <c r="F6" t="n">
+        <v>651449.9878047435</v>
+      </c>
+      <c r="G6" t="n">
+        <v>651449.9878047438</v>
+      </c>
+      <c r="H6" t="n">
+        <v>651449.9878047435</v>
+      </c>
+      <c r="I6" t="n">
         <v>651449.9878047436</v>
       </c>
-      <c r="G6" t="n">
-        <v>651449.987804744</v>
-      </c>
-      <c r="H6" t="n">
-        <v>651449.9878047442</v>
-      </c>
-      <c r="I6" t="n">
-        <v>651449.987804744</v>
-      </c>
       <c r="J6" t="n">
-        <v>433918.7854074662</v>
+        <v>433918.785407466</v>
       </c>
       <c r="K6" t="n">
-        <v>635190.2361835737</v>
+        <v>651449.9878047439</v>
       </c>
       <c r="L6" t="n">
-        <v>654617.9541772057</v>
+        <v>651449.9878047437</v>
       </c>
       <c r="M6" t="n">
-        <v>569562.9262416936</v>
+        <v>566394.959869232</v>
       </c>
       <c r="N6" t="n">
-        <v>654617.9541772057</v>
+        <v>651449.9878047439</v>
       </c>
       <c r="O6" t="n">
-        <v>654617.9541772057</v>
+        <v>651449.9878047437</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047437</v>
+        <v>651449.9878047436</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.401516961234209e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.401516961234209e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.401516961234209e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.25399094013278</v>
+        <v>298.6769128327783</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.9080737955851</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>48.28230238744199</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>61.72361044681037</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>170.5349263790299</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>118.8723697196597</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>54.6901512508411</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>345.9318471227931</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.95509197054702</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,16 +28019,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.50510438230363</v>
+        <v>86.12920085826944</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.641133868265976e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29509,16 +29511,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732306</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0567753070482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>535.8585467435946</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33506,22 +33508,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287862</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N15" t="n">
-        <v>469.7150632237149</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>393.2623022991502</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3654855.864388507</v>
+        <v>3650843.254374514</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>356.9373595174927</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.56102582327524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247925</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.47271252687879</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.57870353610205</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33.38304376059015</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>199.1961742994391</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>90.06486366347968</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>19.34104464821445</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493351</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>79.89660740075878</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>64.35711883683373</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>116.287325111933</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>74.20064764874441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.1078891637031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>80.25286948725228</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>118.4437570891991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>40.57972681915209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.703088815509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>107.1685137621102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>113.8415422301047</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>75.5520862197295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1269.912505337369</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>884.124252739125</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985468</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794326</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263132</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686093</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064768</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.9252167254039</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>461.989033797497</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>311.8723943851612</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>163.9593008027681</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.9593008027681</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9593008027681</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556436</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556436</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.5736815556436</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>720.5449729949386</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>720.5449729949386</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>570.4283335826028</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>422.5152400002097</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>422.5152400002097</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>254.8124033749287</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.5449729949386</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.741330469123</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.341170533245</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.3907139632884</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>392.4545310353815</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>392.4545310353815</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>244.5414374529884</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>244.5414374529884</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370582</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>743.0391787935281</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2079.600600930059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.525374274257</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.89229584329</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.207807637403</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7253,22 +7253,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.6357307816187</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.284195611858</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367897</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.33073463231963e-14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.25835418137862</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>65.16817853567896</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.6938862346289</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>185.1299285698851</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.88156453658576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>53.40527886852314</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>70.88187642683967</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.121213568987367e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820622</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820631</v>
@@ -26426,7 +26426,7 @@
         <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26441,10 +26441,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661234</v>
+        <v>-750092.7917661235</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.9539614698</v>
+        <v>578651.9539614693</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.9539614693</v>
+        <v>578651.9539614695</v>
       </c>
       <c r="E6" t="n">
-        <v>326037.5259973884</v>
+        <v>325690.1467430316</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047435</v>
+        <v>651102.6085503869</v>
       </c>
       <c r="G6" t="n">
-        <v>651449.9878047438</v>
+        <v>651102.6085503865</v>
       </c>
       <c r="H6" t="n">
-        <v>651449.9878047435</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="I6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503869</v>
       </c>
       <c r="J6" t="n">
-        <v>433918.785407466</v>
+        <v>433571.4061531094</v>
       </c>
       <c r="K6" t="n">
-        <v>651449.9878047439</v>
+        <v>651102.6085503869</v>
       </c>
       <c r="L6" t="n">
-        <v>651449.9878047437</v>
+        <v>651102.6085503864</v>
       </c>
       <c r="M6" t="n">
-        <v>566394.959869232</v>
+        <v>566047.5806148747</v>
       </c>
       <c r="N6" t="n">
-        <v>651449.9878047439</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="O6" t="n">
-        <v>651449.9878047437</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503867</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.401516961234209e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.401516961234209e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.401516961234209e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>49.93868622421871</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>298.6769128327783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>48.28230238744199</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>200.558939787726</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>331.8898480104174</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>170.5349263790299</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>54.6901512508411</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>345.9318471227931</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923764</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>86.12920085826944</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>-5.628150201704416e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.641133868265976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,16 +29511,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650843.254374514</v>
+        <v>3652603.784677302</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>256.7518877339005</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.9373595174927</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>51.57870353610205</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>33.38304376059015</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>149.6970050267227</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493351</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>142.4285301601186</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194074</v>
       </c>
     </row>
     <row r="23">
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174148</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576188</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946317</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>60.64713141731118</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1628.17820394412</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="C2" t="n">
-        <v>1628.17820394412</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1269.912505337369</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>884.124252739125</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008242</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.809023826499</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1354.075868958388</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>968.2876163601436</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>557.3017115705361</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4612,7 +4612,7 @@
         <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490667</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>119.5410613073142</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5020,40 +5020,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,16 +5062,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5415,73 +5415,73 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,28 +7332,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2437.724555511392</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>983.3556038098246</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>38.59775584152604</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>104.8770068749577</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
@@ -26331,31 +26331,31 @@
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,13 +26441,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685493</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26493,13 +26493,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661235</v>
+        <v>-750092.7917661234</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.9539614693</v>
+        <v>578651.9539614695</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.9539614695</v>
+        <v>578651.9539614698</v>
       </c>
       <c r="E6" t="n">
-        <v>325690.1467430316</v>
+        <v>326002.7880719528</v>
       </c>
       <c r="F6" t="n">
-        <v>651102.6085503869</v>
+        <v>651415.249879308</v>
       </c>
       <c r="G6" t="n">
-        <v>651102.6085503865</v>
+        <v>651415.249879308</v>
       </c>
       <c r="H6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="I6" t="n">
-        <v>651102.6085503869</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="J6" t="n">
-        <v>433571.4061531094</v>
+        <v>433884.0474820305</v>
       </c>
       <c r="K6" t="n">
-        <v>651102.6085503869</v>
+        <v>651415.2498793084</v>
       </c>
       <c r="L6" t="n">
-        <v>651102.6085503864</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="M6" t="n">
-        <v>566047.5806148747</v>
+        <v>566360.2219437965</v>
       </c>
       <c r="N6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.249879308</v>
       </c>
       <c r="O6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.249879308</v>
       </c>
       <c r="P6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.2498793085</v>
       </c>
     </row>
   </sheetData>
@@ -26792,37 +26792,37 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,22 +26968,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>108.521004037107</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>49.93868622421871</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>200.558939787726</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>331.8898480104174</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>261.2247206267307</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923764</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.628150201704416e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36138,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
